--- a/1.xlsx
+++ b/1.xlsx
@@ -39,7 +39,7 @@
     <t>Отжимания</t>
   </si>
   <si>
-    <t>Вазелин</t>
+    <t>Сахар</t>
   </si>
 </sst>
 </file>
@@ -75,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -360,7 +363,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,13 +390,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>B2*C2</f>
         <v>500</v>
       </c>
@@ -402,13 +405,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>60</v>
       </c>
     </row>
@@ -416,13 +419,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
     </row>
